--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_41.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_41.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9953835664451958</v>
+        <v>0.9168403537767974</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7227763609814879</v>
+        <v>0.6338344241890502</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7153833377911829</v>
+        <v>0.651909735057729</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9954386244867445</v>
+        <v>0.7584249153796412</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01937418407034737</v>
+        <v>0.3490032454764991</v>
       </c>
       <c r="G2" t="n">
-        <v>1.853795750614274</v>
+        <v>2.448550891485266</v>
       </c>
       <c r="H2" t="n">
-        <v>1.018057297698659</v>
+        <v>1.245098694265275</v>
       </c>
       <c r="I2" t="n">
-        <v>0.008583144650521251</v>
+        <v>0.6987851593301159</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2427368487329178</v>
+        <v>1.642059041093219</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1391911781340591</v>
+        <v>0.5907649663584488</v>
       </c>
       <c r="L2" t="n">
-        <v>1.002702302568666</v>
+        <v>0.7148812129490196</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1451168347526862</v>
+        <v>0.6159150540283972</v>
       </c>
       <c r="N2" t="n">
-        <v>137.8876276342554</v>
+        <v>36.10534811492671</v>
       </c>
       <c r="O2" t="n">
-        <v>217.1145562506884</v>
+        <v>56.82623713768611</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9953166362138218</v>
+        <v>0.9166059631378939</v>
       </c>
       <c r="C3" t="n">
-        <v>0.722746267773178</v>
+        <v>0.6331760469115477</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7146514651107028</v>
+        <v>0.6526403219222165</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9956455658439374</v>
+        <v>0.7608657382195382</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01965507593353899</v>
+        <v>0.3499869328465377</v>
       </c>
       <c r="G3" t="n">
-        <v>1.853996984036809</v>
+        <v>2.452953463371474</v>
       </c>
       <c r="H3" t="n">
-        <v>1.020675163840321</v>
+        <v>1.242485427412863</v>
       </c>
       <c r="I3" t="n">
-        <v>0.008193742901465417</v>
+        <v>0.6917247839617107</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2469262146012656</v>
+        <v>1.653040727719044</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1401965617750271</v>
+        <v>0.5915969344465349</v>
       </c>
       <c r="L3" t="n">
-        <v>1.00274148124069</v>
+        <v>0.7140775879013506</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1461650196566813</v>
+        <v>0.6167824407204044</v>
       </c>
       <c r="N3" t="n">
-        <v>137.8588393135931</v>
+        <v>36.09971891983963</v>
       </c>
       <c r="O3" t="n">
-        <v>217.0857679300262</v>
+        <v>56.82060794259904</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9952459193465183</v>
+        <v>0.915557486235669</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7227150035327696</v>
+        <v>0.6303449875714828</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7139094301724284</v>
+        <v>0.6555322998309927</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9958304683572025</v>
+        <v>0.7706756310498093</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01995185949768042</v>
+        <v>0.3543871661123393</v>
       </c>
       <c r="G4" t="n">
-        <v>1.854206048156378</v>
+        <v>2.471884770214318</v>
       </c>
       <c r="H4" t="n">
-        <v>1.023329379788871</v>
+        <v>1.232140990119684</v>
       </c>
       <c r="I4" t="n">
-        <v>0.007845811666032773</v>
+        <v>0.6633484820960395</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2511598599474723</v>
+        <v>1.698002185865039</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1412510513153103</v>
+        <v>0.5953042634756947</v>
       </c>
       <c r="L4" t="n">
-        <v>1.002782876480087</v>
+        <v>0.7104828099508652</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1472644009997886</v>
+        <v>0.6206475984215647</v>
       </c>
       <c r="N4" t="n">
-        <v>137.8288658641721</v>
+        <v>36.07473054781644</v>
       </c>
       <c r="O4" t="n">
-        <v>217.0557944806052</v>
+        <v>56.79561957057584</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9951714405149313</v>
+        <v>0.9152659667306976</v>
       </c>
       <c r="C5" t="n">
-        <v>0.722682502189858</v>
+        <v>0.6296124184520225</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7131575551166952</v>
+        <v>0.65624690130779</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9959926589328423</v>
+        <v>0.7731363669401163</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02026443122115066</v>
+        <v>0.3556106111121129</v>
       </c>
       <c r="G5" t="n">
-        <v>1.854423384786082</v>
+        <v>2.476783463289319</v>
       </c>
       <c r="H5" t="n">
-        <v>1.026018793267007</v>
+        <v>1.229584902072155</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00754061750527531</v>
+        <v>0.6562305058201342</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2554402437296308</v>
+        <v>1.709502999206265</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1423531918193289</v>
+        <v>0.5963309577005984</v>
       </c>
       <c r="L5" t="n">
-        <v>1.002826473844918</v>
+        <v>0.7094833145052489</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1484134619068087</v>
+        <v>0.6217180011451725</v>
       </c>
       <c r="N5" t="n">
-        <v>137.7977761726995</v>
+        <v>36.06783787152956</v>
       </c>
       <c r="O5" t="n">
-        <v>217.0247047891326</v>
+        <v>56.78872689428896</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9950930873925145</v>
+        <v>0.9149620366597435</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7226487774990413</v>
+        <v>0.6288822038750117</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7123950994374505</v>
+        <v>0.656957753749233</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9961315670533981</v>
+        <v>0.7755995983875819</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02059326251443578</v>
+        <v>0.3568861406024162</v>
       </c>
       <c r="G6" t="n">
-        <v>1.854648901948861</v>
+        <v>2.48166641152812</v>
       </c>
       <c r="H6" t="n">
-        <v>1.028746053021945</v>
+        <v>1.227042224106706</v>
       </c>
       <c r="I6" t="n">
-        <v>0.007279233962438812</v>
+        <v>0.649105310843222</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2597641710380449</v>
+        <v>1.721113016234283</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1435035278814977</v>
+        <v>0.5973994815886738</v>
       </c>
       <c r="L6" t="n">
-        <v>1.002872339087309</v>
+        <v>0.7084412685476921</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1496127701566679</v>
+        <v>0.6228320143073127</v>
       </c>
       <c r="N6" t="n">
-        <v>137.7655826381784</v>
+        <v>36.06067696391903</v>
       </c>
       <c r="O6" t="n">
-        <v>216.9925112546115</v>
+        <v>56.78156598667844</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.995010681793034</v>
+        <v>0.9146453109660457</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7226136667824115</v>
+        <v>0.628119052851966</v>
       </c>
       <c r="D7" t="n">
-        <v>0.71162232132606</v>
+        <v>0.6576643555558306</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9962463415821379</v>
+        <v>0.7780642646237605</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02093910118704051</v>
+        <v>0.3582153705841023</v>
       </c>
       <c r="G7" t="n">
-        <v>1.854883687472636</v>
+        <v>2.486769605933213</v>
       </c>
       <c r="H7" t="n">
-        <v>1.03151023551814</v>
+        <v>1.224514750415633</v>
       </c>
       <c r="I7" t="n">
-        <v>0.007063262622323147</v>
+        <v>0.6419759655663683</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2641346254946958</v>
+        <v>1.732828897829662</v>
       </c>
       <c r="K7" t="n">
-        <v>0.144703494038812</v>
+        <v>0.5985109611227704</v>
       </c>
       <c r="L7" t="n">
-        <v>1.002920576511395</v>
+        <v>0.7073553518835853</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1508638213575715</v>
+        <v>0.6239908118262555</v>
       </c>
       <c r="N7" t="n">
-        <v>137.7322739954319</v>
+        <v>36.05324175931221</v>
       </c>
       <c r="O7" t="n">
-        <v>216.959202611865</v>
+        <v>56.77413078207162</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.994924173049833</v>
+        <v>0.913972040409485</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7225772930832732</v>
+        <v>0.6265335312668396</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7108390315185104</v>
+        <v>0.6590645079302176</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9963361607325812</v>
+        <v>0.7829956579740921</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0213021598760854</v>
+        <v>0.361040943082244</v>
       </c>
       <c r="G8" t="n">
-        <v>1.855126918566258</v>
+        <v>2.497371996073609</v>
       </c>
       <c r="H8" t="n">
-        <v>1.034312017741992</v>
+        <v>1.21950648655795</v>
       </c>
       <c r="I8" t="n">
-        <v>0.006894249841331389</v>
+        <v>0.6277113136737843</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2685531724513608</v>
+        <v>1.756590487777051</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1459525946192304</v>
+        <v>0.6008668264118465</v>
       </c>
       <c r="L8" t="n">
-        <v>1.002971215775708</v>
+        <v>0.7050469956896628</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1521660987356929</v>
+        <v>0.6264469711780011</v>
       </c>
       <c r="N8" t="n">
-        <v>137.6978936175491</v>
+        <v>36.03752782268009</v>
       </c>
       <c r="O8" t="n">
-        <v>216.9248222339821</v>
+        <v>56.7584168454395</v>
       </c>
     </row>
     <row r="9">
@@ -855,144 +855,144 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9948334383601043</v>
+        <v>0.9096988522084358</v>
       </c>
       <c r="C9" t="n">
-        <v>0.722539474034236</v>
+        <v>0.6177802997735016</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7100449743129598</v>
+        <v>0.6657204082149315</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9964004043046425</v>
+        <v>0.8074668977284332</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02168295395868215</v>
+        <v>0.3789745998307974</v>
       </c>
       <c r="G9" t="n">
-        <v>1.855379814721311</v>
+        <v>2.555904895374485</v>
       </c>
       <c r="H9" t="n">
-        <v>1.037152314324164</v>
+        <v>1.195698717170801</v>
       </c>
       <c r="I9" t="n">
-        <v>0.006773362650556264</v>
+        <v>0.5569252920208643</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2730174930774025</v>
+        <v>1.882760266916855</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1472513292255189</v>
+        <v>0.6156091290996238</v>
       </c>
       <c r="L9" t="n">
-        <v>1.003024328764817</v>
+        <v>0.6903960647146372</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1535201231629224</v>
+        <v>0.6418168842119708</v>
       </c>
       <c r="N9" t="n">
-        <v>137.662457717971</v>
+        <v>35.94057219012336</v>
       </c>
       <c r="O9" t="n">
-        <v>216.8893863344041</v>
+        <v>56.66146121288277</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_41_1</t>
+          <t>model_1_41_0</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9947383993686658</v>
+        <v>0.9020458309740997</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7225003074372218</v>
+        <v>0.615565459565603</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7092398341473296</v>
+        <v>0.6725382953550937</v>
       </c>
       <c r="E10" t="n">
-        <v>0.996438335284445</v>
+        <v>0.8352242234580112</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02208181227476759</v>
+        <v>0.4110926927976073</v>
       </c>
       <c r="G10" t="n">
-        <v>1.85564172193589</v>
+        <v>2.570715542043105</v>
       </c>
       <c r="H10" t="n">
-        <v>1.040032254011914</v>
+        <v>1.171311530194251</v>
       </c>
       <c r="I10" t="n">
-        <v>0.006701987889711748</v>
+        <v>0.4766338691160437</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2775269156487714</v>
+        <v>2.052749399205604</v>
       </c>
       <c r="K10" t="n">
-        <v>0.148599502942532</v>
+        <v>0.6411651057236406</v>
       </c>
       <c r="L10" t="n">
-        <v>1.003079961345171</v>
+        <v>0.6641571347683419</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1549256914261731</v>
+        <v>0.6684608316690366</v>
       </c>
       <c r="N10" t="n">
-        <v>137.6260019665597</v>
+        <v>35.77787311998554</v>
       </c>
       <c r="O10" t="n">
-        <v>216.8529305829927</v>
+        <v>56.49876214274494</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_41_0</t>
+          <t>model_1_41_1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9946389095696659</v>
+        <v>0.9056268685106238</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7224596642540075</v>
+        <v>0.6103110228895576</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7084236996861396</v>
+        <v>0.6698992239618253</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9964490782428612</v>
+        <v>0.824010439081998</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02249934967805991</v>
+        <v>0.3960638443214417</v>
       </c>
       <c r="G11" t="n">
-        <v>1.85591350308919</v>
+        <v>2.605851984290276</v>
       </c>
       <c r="H11" t="n">
-        <v>1.042951519657396</v>
+        <v>1.180751335545821</v>
       </c>
       <c r="I11" t="n">
-        <v>0.006681772854621253</v>
+        <v>0.5090710971281973</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2820886762812854</v>
+        <v>1.979585150940917</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1499978322445358</v>
+        <v>0.6293360345009983</v>
       </c>
       <c r="L11" t="n">
-        <v>1.003138199276293</v>
+        <v>0.6764349777507102</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1563835505015039</v>
+        <v>0.6561281723948932</v>
       </c>
       <c r="N11" t="n">
-        <v>137.5885377467736</v>
+        <v>35.8523597153775</v>
       </c>
       <c r="O11" t="n">
-        <v>216.8154663632067</v>
+        <v>56.5732487381369</v>
       </c>
     </row>
   </sheetData>
